--- a/results/round11/results-ROUND11.xlsx
+++ b/results/round11/results-ROUND11.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Third-Year-Project\Intruder-Aircraft-Detection\results\round11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62932760-5FEF-4226-B2FF-507AD14A3453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19395" yWindow="0" windowWidth="19110" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,379 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+  <si>
+    <t>Rotate (5)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Augment Metadata</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Dataset Size</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Averaged Results (average, std)</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>"methods:
+  rotate:
+    parameters:
+      angle_limit: 5
+      p: 1.0
+    apply_to_percentage: 1.5"</t>
+  </si>
+  <si>
+    <t>"01"</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"23"</t>
+  </si>
+  <si>
+    <t>"45"</t>
+  </si>
+  <si>
+    <t>HistEq + Contrast</t>
+  </si>
+  <si>
+    <t>HistEq + Contrast + Rotate 5</t>
+  </si>
+  <si>
+    <t>r5-w01-30-2500-pure</t>
+  </si>
+  <si>
+    <t>r5-w01-30-2500-aug</t>
+  </si>
+  <si>
+    <t>r5-w23-30-2500-pure</t>
+  </si>
+  <si>
+    <t>r5-w23-30-2500-aug</t>
+  </si>
+  <si>
+    <t>r5-w45-30-2500-pure</t>
+  </si>
+  <si>
+    <t>r5-w45-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hec-w01-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hec-w01-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hec-w23-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hec-w23-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hec-w45-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hec-w45-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hecr-w01-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hecr-w01-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hecr-w23-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hecr-w23-30-2500-aug</t>
+  </si>
+  <si>
+    <t>hecr-w45-30-2500-pure</t>
+  </si>
+  <si>
+    <t>hecr-w45-30-2500-aug</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.505, 0.010)
+mAP_50: (0.763, 0.008)
+mAP_75: (0.573, 0.013)
+mAP_per_class:
+    - (0.311, 0.016)
+    - (0.639, 0.014)
+    - (0.566, 0.023)
+f1_per_class:
+    - (0.555, 0.018)
+    - (0.811, 0.010)
+    - (0.718, 0.024)
+f1_avg: (0.695, 0.010)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.539, 0.010)
+mAP_50: (0.786, 0.008)
+mAP_75: (0.606, 0.021)
+mAP_per_class:
+    - (0.344, 0.016)
+    - (0.683, 0.006)
+    - (0.590, 0.014)
+f1_per_class:
+    - (0.579, 0.036)
+    - (0.840, 0.009)
+    - (0.753, 0.017)
+f1_avg: (0.724, 0.013)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.572, 0.012)
+mAP_50: (0.834, 0.007)
+mAP_75: (0.637, 0.022)
+mAP_per_class:
+    - (0.405, 0.014)
+    - (0.734, 0.013)
+    - (0.575, 0.020)
+f1_per_class:
+    - (0.634, 0.026)
+    - (0.877, 0.011)
+    - (0.764, 0.005)
+f1_avg: (0.759, 0.008)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.607, 0.007)
+mAP_50: (0.855, 0.006)
+mAP_75: (0.694, 0.008)
+mAP_per_class:
+    - (0.453, 0.017)
+    - (0.757, 0.008)
+    - (0.610, 0.011)
+f1_per_class:
+    - (0.657, 0.011)
+    - (0.889, 0.006)
+    - (0.786, 0.027)
+f1_avg: (0.777, 0.007)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.569, 0.007)
+mAP_50: (0.838, 0.005)
+mAP_75: (0.652, 0.010)
+mAP_per_class:
+    - (0.419, 0.008)
+    - (0.685, 0.008)
+    - (0.603, 0.016)
+f1_per_class:
+    - (0.685, 0.017)
+    - (0.870, 0.015)
+    - (0.817, 0.013)
+f1_avg: (0.791, 0.006)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.591, 0.008)
+mAP_50: (0.854, 0.009)
+mAP_75: (0.689, 0.015)
+mAP_per_class:
+    - (0.445, 0.019)
+    - (0.713, 0.010)
+    - (0.616, 0.012)
+f1_per_class:
+    - (0.698, 0.036)
+    - (0.884, 0.005)
+    - (0.830, 0.017)
+f1_avg: (0.804, 0.013)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.513, 0.011)
+mAP_50: (0.773, 0.011)
+mAP_75: (0.577, 0.018)
+mAP_per_class:
+    - (0.320, 0.019)
+    - (0.647, 0.013)
+    - (0.571, 0.011)
+f1_per_class:
+    - (0.539, 0.037)
+    - (0.821, 0.012)
+    - (0.741, 0.021)
+f1_avg: (0.701, 0.014)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.527, 0.008)
+mAP_50: (0.778, 0.006)
+mAP_75: (0.590, 0.020)
+mAP_per_class:
+    - (0.328, 0.011)
+    - (0.668, 0.010)
+    - (0.584, 0.010)
+f1_per_class:
+    - (0.565, 0.028)
+    - (0.826, 0.014)
+    - (0.737, 0.017)
+f1_avg: (0.709, 0.012)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.579, 0.013)
+mAP_50: (0.840, 0.012)
+mAP_75: (0.656, 0.020)
+mAP_per_class:
+    - (0.428, 0.017)
+    - (0.716, 0.010)
+    - (0.592, 0.023)
+f1_per_class:
+    - (0.648, 0.027)
+    - (0.872, 0.014)
+    - (0.773, 0.025)
+f1_avg: (0.764, 0.014)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.607, 0.009)
+mAP_50: (0.856, 0.010)
+mAP_75: (0.692, 0.012)
+mAP_per_class:
+    - (0.454, 0.012)
+    - (0.745, 0.007)
+    - (0.622, 0.018)
+f1_per_class:
+    - (0.665, 0.024)
+    - (0.879, 0.012)
+    - (0.805, 0.013)
+f1_avg: (0.783, 0.010)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.553, 0.010)
+mAP_50: (0.824, 0.009)
+mAP_75: (0.632, 0.017)
+mAP_per_class:
+    - (0.412, 0.007)
+    - (0.662, 0.011)
+    - (0.585, 0.015)
+f1_per_class:
+    - (0.676, 0.018)
+    - (0.858, 0.010)
+    - (0.803, 0.022)
+f1_avg: (0.779, 0.013)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.581, 0.004)
+mAP_50: (0.839, 0.012)
+mAP_75: (0.671, 0.010)
+mAP_per_class:
+    - (0.429, 0.018)
+    - (0.710, 0.008)
+    - (0.603, 0.007)
+f1_per_class:
+    - (0.680, 0.031)
+    - (0.874, 0.013)
+    - (0.811, 0.012)
+f1_avg: (0.789, 0.014)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.502, 0.009)
+mAP_50: (0.766, 0.009)
+mAP_75: (0.568, 0.026)
+mAP_per_class:
+    - (0.305, 0.011)
+    - (0.648, 0.011)
+    - (0.554, 0.013)
+f1_per_class:
+    - (0.552, 0.033)
+    - (0.813, 0.016)
+    - (0.729, 0.040)
+f1_avg: (0.698, 0.026)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.537, 0.006)
+mAP_50: (0.787, 0.007)
+mAP_75: (0.619, 0.017)
+mAP_per_class:
+    - (0.346, 0.002)
+    - (0.667, 0.024)
+    - (0.597, 0.011)
+f1_per_class:
+    - (0.580, 0.046)
+    - (0.827, 0.016)
+    - (0.765, 0.012)
+f1_avg: (0.724, 0.012)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.578, 0.010)
+mAP_50: (0.837, 0.010)
+mAP_75: (0.645, 0.014)
+mAP_per_class:
+    - (0.405, 0.017)
+    - (0.729, 0.013)
+    - (0.599, 0.017)
+f1_per_class:
+    - (0.636, 0.018)
+    - (0.871, 0.012)
+    - (0.768, 0.028)
+f1_avg: (0.758, 0.010)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.599, 0.011)
+mAP_50: (0.847, 0.007)
+mAP_75: (0.685, 0.018)
+mAP_per_class:
+    - (0.431, 0.020)
+    - (0.752, 0.009)
+    - (0.616, 0.012)
+f1_per_class:
+    - (0.631, 0.023)
+    - (0.884, 0.004)
+    - (0.765, 0.020)
+f1_avg: (0.760, 0.015)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.565, 0.013)
+mAP_50: (0.830, 0.012)
+mAP_75: (0.646, 0.025)
+mAP_per_class:
+    - (0.406, 0.028)
+    - (0.691, 0.014)
+    - (0.596, 0.016)
+f1_per_class:
+    - (0.658, 0.033)
+    - (0.869, 0.013)
+    - (0.811, 0.020)
+f1_avg: (0.779, 0.015)</t>
+  </si>
+  <si>
+    <t>mAP_50-95: (0.583, 0.009)
+mAP_50: (0.847, 0.012)
+mAP_75: (0.670, 0.013)
+mAP_per_class:
+    - (0.428, 0.026)
+    - (0.700, 0.012)
+    - (0.620, 0.009)
+f1_per_class:
+    - (0.689, 0.037)
+    - (0.882, 0.016)
+    - (0.812, 0.009)
+f1_avg: (0.794, 0.011)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +404,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,12 +439,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +975,2376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="7">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F65" s="7">
+        <v>30</v>
+      </c>
+      <c r="G65" s="7">
+        <v>5</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="25"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="25"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F127" s="7">
+        <v>30</v>
+      </c>
+      <c r="G127" s="7">
+        <v>5</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="23"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="23"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="23"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="23"/>
+    </row>
+    <row r="146" spans="1:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="25"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="27"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="23"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="23"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="23"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="23"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="23"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="23"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="1:8" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="25"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="27"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="23"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="23"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="21"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="23"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="21"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="25"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="147">
+    <mergeCell ref="G177:G186"/>
+    <mergeCell ref="H177:H186"/>
+    <mergeCell ref="A177:A186"/>
+    <mergeCell ref="B177:B186"/>
+    <mergeCell ref="C177:C186"/>
+    <mergeCell ref="D177:D186"/>
+    <mergeCell ref="E177:E186"/>
+    <mergeCell ref="F177:F186"/>
+    <mergeCell ref="G157:G166"/>
+    <mergeCell ref="H157:H166"/>
+    <mergeCell ref="A167:A176"/>
+    <mergeCell ref="B167:B176"/>
+    <mergeCell ref="C167:C176"/>
+    <mergeCell ref="D167:D176"/>
+    <mergeCell ref="E167:E176"/>
+    <mergeCell ref="F167:F176"/>
+    <mergeCell ref="G167:G176"/>
+    <mergeCell ref="H167:H176"/>
+    <mergeCell ref="A157:A166"/>
+    <mergeCell ref="B157:B166"/>
+    <mergeCell ref="C157:C166"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="E157:E166"/>
+    <mergeCell ref="F157:F166"/>
+    <mergeCell ref="G137:G146"/>
+    <mergeCell ref="H137:H146"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="B147:B156"/>
+    <mergeCell ref="C147:C156"/>
+    <mergeCell ref="D147:D156"/>
+    <mergeCell ref="E147:E156"/>
+    <mergeCell ref="F147:F156"/>
+    <mergeCell ref="G147:G156"/>
+    <mergeCell ref="H147:H156"/>
+    <mergeCell ref="A137:A146"/>
+    <mergeCell ref="B137:B146"/>
+    <mergeCell ref="C137:C146"/>
+    <mergeCell ref="D137:D146"/>
+    <mergeCell ref="E137:E146"/>
+    <mergeCell ref="F137:F146"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A127:A136"/>
+    <mergeCell ref="B127:B136"/>
+    <mergeCell ref="C127:C136"/>
+    <mergeCell ref="D127:D136"/>
+    <mergeCell ref="E127:E136"/>
+    <mergeCell ref="F127:F136"/>
+    <mergeCell ref="G127:G136"/>
+    <mergeCell ref="H127:H136"/>
+    <mergeCell ref="G105:G114"/>
+    <mergeCell ref="H105:H114"/>
+    <mergeCell ref="A115:A124"/>
+    <mergeCell ref="B115:B124"/>
+    <mergeCell ref="C115:C124"/>
+    <mergeCell ref="D115:D124"/>
+    <mergeCell ref="E115:E124"/>
+    <mergeCell ref="F115:F124"/>
+    <mergeCell ref="G115:G124"/>
+    <mergeCell ref="H115:H124"/>
+    <mergeCell ref="A105:A114"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="C105:C114"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="E105:E114"/>
+    <mergeCell ref="F105:F114"/>
+    <mergeCell ref="G85:G94"/>
+    <mergeCell ref="H85:H94"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="E95:E104"/>
+    <mergeCell ref="F95:F104"/>
+    <mergeCell ref="G95:G104"/>
+    <mergeCell ref="H95:H104"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E85:E94"/>
+    <mergeCell ref="F85:F94"/>
+    <mergeCell ref="H65:H74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="E75:E84"/>
+    <mergeCell ref="F75:F84"/>
+    <mergeCell ref="G75:G84"/>
+    <mergeCell ref="H75:H84"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E74"/>
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="D53:D62"/>
+    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="D33:D42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>